--- a/notes/planting density.xlsx
+++ b/notes/planting density.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/Research/Publications/Chapter 4/Version 2/GitHub/cndc_bayesian_eval/notes/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive-110536913573078057504/My Drive/Research/Publications/Chapter 4/Version 2/GitHub/cndc_bayesian_eval/notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E6A5ED6-406C-1043-A63B-7F37D89729A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D42CF49A-2E80-E94C-8B5B-501FDEEDA92F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26800" yWindow="9720" windowWidth="14240" windowHeight="10780" xr2:uid="{AFF9CB0C-B99D-BC44-AC37-5D8E7A4197B6}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" xr2:uid="{AFF9CB0C-B99D-BC44-AC37-5D8E7A4197B6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="35">
   <si>
     <t>Location</t>
   </si>
@@ -105,12 +105,6 @@
     <t>Belanger (2001)</t>
   </si>
   <si>
-    <t>Ben Abdallah (2016)</t>
-  </si>
-  <si>
-    <t>variable</t>
-  </si>
-  <si>
     <t>1991, 1992</t>
   </si>
   <si>
@@ -136,6 +130,15 @@
   </si>
   <si>
     <t>All</t>
+  </si>
+  <si>
+    <t>2010-2014</t>
+  </si>
+  <si>
+    <t>`</t>
+  </si>
+  <si>
+    <t>Personal Communication</t>
   </si>
 </sst>
 </file>
@@ -221,34 +224,34 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -563,10 +566,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4906ED0A-E2DA-4F4C-BE36-ECB8AE7397B4}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D8:D12"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -594,114 +597,114 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="12">
+        <v>27</v>
+      </c>
+      <c r="D2" s="6">
         <f>10000/(36*12*0.00064516)</f>
         <v>35879.701389032409</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="4"/>
-      <c r="B3" s="5" t="s">
+      <c r="A3" s="8"/>
+      <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="12">
+        <v>25</v>
+      </c>
+      <c r="D3" s="6">
         <f t="shared" ref="D3:D7" si="0">10000/(36*12*0.00064516)</f>
         <v>35879.701389032409</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="4"/>
-      <c r="B4" s="5" t="s">
+      <c r="A4" s="8"/>
+      <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="12">
+        <v>25</v>
+      </c>
+      <c r="D4" s="6">
         <f t="shared" si="0"/>
         <v>35879.701389032409</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="4"/>
-      <c r="B5" s="5" t="s">
+      <c r="A5" s="8"/>
+      <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="12">
+        <v>23</v>
+      </c>
+      <c r="D5" s="6">
         <f>10000/(36*10*0.00064516)</f>
         <v>43055.641666838892</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="4"/>
-      <c r="B6" s="5" t="s">
+      <c r="A6" s="8"/>
+      <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="12">
+        <v>29</v>
+      </c>
+      <c r="D6" s="6">
         <f t="shared" si="0"/>
         <v>35879.701389032409</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7" t="s">
+      <c r="A7" s="9"/>
+      <c r="B7" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="12">
+        <v>27</v>
+      </c>
+      <c r="D7" s="6">
         <f t="shared" si="0"/>
         <v>35879.701389032409</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="12">
+        <v>31</v>
+      </c>
+      <c r="D8" s="6">
         <v>59000</v>
       </c>
       <c r="E8" t="s">
@@ -709,14 +712,14 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="9"/>
-      <c r="B9" s="5" t="s">
+      <c r="A9" s="11"/>
+      <c r="B9" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="12">
+        <v>31</v>
+      </c>
+      <c r="D9" s="6">
         <v>59000</v>
       </c>
       <c r="E9" t="s">
@@ -724,14 +727,14 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="9"/>
-      <c r="B10" s="5" t="s">
+      <c r="A10" s="11"/>
+      <c r="B10" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="12">
+        <v>31</v>
+      </c>
+      <c r="D10" s="6">
         <v>59000</v>
       </c>
       <c r="E10" t="s">
@@ -739,14 +742,14 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="9"/>
-      <c r="B11" s="5" t="s">
+      <c r="A11" s="11"/>
+      <c r="B11" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="12">
+        <v>31</v>
+      </c>
+      <c r="D11" s="6">
         <v>59000</v>
       </c>
       <c r="E11" t="s">
@@ -754,14 +757,14 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="6"/>
-      <c r="B12" s="7" t="s">
+      <c r="A12" s="9"/>
+      <c r="B12" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="12">
+        <v>31</v>
+      </c>
+      <c r="D12" s="6">
         <v>59000</v>
       </c>
       <c r="E12" t="s">
@@ -769,16 +772,16 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="12">
+        <v>31</v>
+      </c>
+      <c r="D13" s="6">
         <f>10000/(0.75*0.46)</f>
         <v>28985.507246376808</v>
       </c>
@@ -787,14 +790,14 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="6"/>
-      <c r="B14" s="7" t="s">
+      <c r="A14" s="9"/>
+      <c r="B14" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="12">
+        <v>31</v>
+      </c>
+      <c r="D14" s="6">
         <f>10000/(0.75*0.3)</f>
         <v>44444.444444444445</v>
       </c>
@@ -803,29 +806,42 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="12" t="s">
-        <v>24</v>
+      <c r="C15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="6">
+        <f>10000/(0.75*0.35)</f>
+        <v>38095.238095238099</v>
       </c>
       <c r="E15" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="11" t="s">
+      <c r="A16" s="12"/>
+      <c r="B16" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="12" t="s">
-        <v>24</v>
+      <c r="C16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="6">
+        <f>10000/(0.75*0.35)</f>
+        <v>38095.238095238099</v>
       </c>
       <c r="E16" t="s">
-        <v>23</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D21" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
